--- a/medicine/Enfance/Lustiges_Taschenbuch/Lustiges_Taschenbuch.xlsx
+++ b/medicine/Enfance/Lustiges_Taschenbuch/Lustiges_Taschenbuch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lustiges Taschenbuch (abrégé en LTB et appelé anciennement Lustige Taschenbücher) est un magazine allemand mensuel regroupant des bandes dessinées Disney, la plupart du temps de production italienne. Le 552e numéro est paru en novembre 2021.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier numéro est sorti le 1er octobre 1967.
 </t>
